--- a/apps/template-001/src/i18n/i18n.xlsx
+++ b/apps/template-001/src/i18n/i18n.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25" count="25">
   <x:si>
     <x:t>键名</x:t>
   </x:si>
@@ -31,28 +31,64 @@
     <x:t>zh</x:t>
   </x:si>
   <x:si>
-    <x:t>k1e7477f9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>这是banner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>k4bbe405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>这是content</x:t>
+    <x:t>kd8ec8984</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是宣传图en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是宣传图th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是宣传图vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是宣传图zh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ka091b31c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是内容区en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是内容区th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是内容区vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>这是内容区zh</x:t>
   </x:si>
   <x:si>
     <x:t>k88af14eb</x:t>
   </x:si>
   <x:si>
-    <x:t>彩票</x:t>
+    <x:t>彩票en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彩票th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彩票vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>彩票zh</x:t>
   </x:si>
   <x:si>
     <x:t>kf09ed3a9</x:t>
   </x:si>
   <x:si>
-    <x:t>体育</x:t>
+    <x:t>体育en</x:t>
+  </x:si>
+  <x:si>
+    <x:t>体育th</x:t>
+  </x:si>
+  <x:si>
+    <x:t>体育vi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>体育zh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -440,64 +476,64 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
